--- a/assets/form/LKP/AOSR.xlsx
+++ b/assets/form/LKP/AOSR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\nov1\assets\form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\nov1\assets\form\LKP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFB64DBE-565C-44EE-A104-11D4D7667DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA68AA00-C776-4360-8563-ED54A2EFD079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0127AEF0-2398-43B9-BD2E-074B8A3606A2}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0127AEF0-2398-43B9-BD2E-074B8A3606A2}"/>
   </bookViews>
   <sheets>
     <sheet name="AOSR" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>(должность, фамилия, инициалы, подпись)</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t xml:space="preserve">Представитель застройщика или заказчика </t>
-  </si>
-  <si>
-    <t xml:space="preserve">«_____»  _____________ 20___ г. </t>
   </si>
   <si>
     <t xml:space="preserve">№   ____________   </t>
@@ -584,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A563F9A0-1DD0-40C2-ACE6-6D7D9E82F5BB}">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,26 +592,24 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G1" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="H8" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1092,7 +1087,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="54" max="9" man="1"/>
   </rowBreaks>
